--- a/TestAutomationFramework/TestAutomationFrameworkDev/src/unicodeTech/XLSFiles/TestSuite.xlsx
+++ b/TestAutomationFramework/TestAutomationFrameworkDev/src/unicodeTech/XLSFiles/TestSuite.xlsx
@@ -39,10 +39,10 @@
     <t>TestCases of Module2</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -448,7 +448,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
